--- a/results/mp/logistic/corona/confidence/84/desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,82 +43,88 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>shit</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
+    <t>19</t>
   </si>
   <si>
     <t>of</t>
   </si>
   <si>
-    <t>19</t>
+    <t>to</t>
   </si>
   <si>
     <t>a</t>
@@ -127,16 +133,16 @@
     <t>,</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
+    <t>corona</t>
   </si>
   <si>
     <t>negative</t>
@@ -145,109 +151,97 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>giving</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
+    <t>give</t>
   </si>
   <si>
     <t>sure</t>
@@ -256,6 +250,9 @@
     <t>increase</t>
   </si>
   <si>
+    <t>check</t>
+  </si>
+  <si>
     <t>keep</t>
   </si>
   <si>
@@ -265,19 +262,34 @@
     <t>you</t>
   </si>
   <si>
+    <t>amp</t>
+  </si>
+  <si>
     <t>your</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>are</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>in</t>
   </si>
 </sst>
 </file>
@@ -635,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +655,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +716,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -754,13 +766,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +784,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +816,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -825,16 +837,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +866,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>0.9166666666666666</v>
@@ -904,13 +916,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8493150684931506</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C7">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D7">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,10 +934,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>0.9090909090909091</v>
@@ -975,16 +987,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.8955613577023499</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L8">
-        <v>343</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>343</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1016,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7948717948717948</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.890625</v>
+        <v>0.8981723237597912</v>
       </c>
       <c r="L9">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="M9">
-        <v>114</v>
+        <v>344</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1066,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7450980392156863</v>
+        <v>0.775</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0.8867924528301887</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L10">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1116,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K11">
         <v>0.8839285714285714</v>
@@ -1154,13 +1166,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6923076923076923</v>
+        <v>0.6949152542372882</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K12">
         <v>0.8793103448275862</v>
@@ -1204,37 +1216,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6896551724137931</v>
+        <v>0.689922480620155</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>356</v>
       </c>
       <c r="D13">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="E13">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K13">
-        <v>0.85625</v>
+        <v>0.875</v>
       </c>
       <c r="L13">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1275,16 +1287,16 @@
         <v>62</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>0.8536585365853658</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L14">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="M14">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,13 +1316,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6608527131782945</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C15">
-        <v>341</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>341</v>
+        <v>33</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1322,19 +1334,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K15">
-        <v>0.851063829787234</v>
+        <v>0.8625</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1366,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6375838926174496</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="C16">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="D16">
-        <v>95</v>
+        <v>215</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1384,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0.8450704225352113</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L16">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="M16">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,7 +1416,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5714285714285714</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C17">
         <v>32</v>
@@ -1422,19 +1434,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>0.8333333333333334</v>
+        <v>0.8380281690140845</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5636363636363636</v>
+        <v>0.5771812080536913</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,19 +1484,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K18">
-        <v>0.813953488372093</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1496,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1504,13 +1516,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5466666666666666</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.8</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L19">
         <v>32</v>
@@ -1546,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,13 +1566,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5416666666666666</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C20">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1572,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>165</v>
+        <v>28</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.7948717948717948</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1596,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,13 +1616,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4285714285714285</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D21">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1622,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>0.7936507936507936</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1646,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,13 +1666,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3333333333333333</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C22">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D22">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1672,19 +1684,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.7916666666666666</v>
+        <v>0.7441176470588236</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,13 +1716,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3111111111111111</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1722,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>0.7714285714285715</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L23">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="M23">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1746,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1754,13 +1766,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2949061662198391</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C24">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1772,19 +1784,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>0.7617647058823529</v>
+        <v>0.725</v>
       </c>
       <c r="L24">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1796,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>81</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,37 +1816,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1566666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="C25">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="D25">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K25">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="L25">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1846,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1854,49 +1866,49 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.03373702422145329</v>
+        <v>0.1266666666666667</v>
       </c>
       <c r="C26">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E26">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1117</v>
+        <v>262</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K26">
-        <v>0.7575757575757576</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="L26">
+        <v>64</v>
+      </c>
+      <c r="M26">
+        <v>64</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>25</v>
-      </c>
-      <c r="M26">
-        <v>25</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,37 +1916,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.02364755425979916</v>
+        <v>0.03959753326841935</v>
       </c>
       <c r="C27">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="D27">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="E27">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="F27">
-        <v>0.78</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3014</v>
+        <v>2959</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K27">
-        <v>0.7230769230769231</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1946,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1954,37 +1966,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01653944020356234</v>
+        <v>0.03027681660899654</v>
       </c>
       <c r="C28">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D28">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E28">
-        <v>0.35</v>
+        <v>0.12</v>
       </c>
       <c r="F28">
-        <v>0.65</v>
+        <v>0.88</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2319</v>
+        <v>1121</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K28">
-        <v>0.717687074829932</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L28">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="M28">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1993,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>83</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2004,37 +2016,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01643192488262911</v>
+        <v>0.02644003777148253</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="E29">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="F29">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2095</v>
+        <v>2062</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K29">
-        <v>0.7058823529411765</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2046,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2054,49 +2066,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01268591426071741</v>
+        <v>0.01949152542372882</v>
       </c>
       <c r="C30">
+        <v>46</v>
+      </c>
+      <c r="D30">
+        <v>65</v>
+      </c>
+      <c r="E30">
+        <v>0.29</v>
+      </c>
+      <c r="F30">
+        <v>0.71</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2314</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30">
+        <v>0.6914893617021277</v>
+      </c>
+      <c r="L30">
+        <v>65</v>
+      </c>
+      <c r="M30">
+        <v>65</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>29</v>
-      </c>
-      <c r="D30">
-        <v>52</v>
-      </c>
-      <c r="E30">
-        <v>0.44</v>
-      </c>
-      <c r="F30">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>2257</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30">
-        <v>0.698744769874477</v>
-      </c>
-      <c r="L30">
-        <v>167</v>
-      </c>
-      <c r="M30">
-        <v>167</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2104,37 +2116,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01042970379641218</v>
+        <v>0.01319820881451803</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D31">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="E31">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="F31">
-        <v>0.34</v>
+        <v>0.4</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2372</v>
+        <v>4187</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K31">
-        <v>0.6888888888888889</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2146,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2154,49 +2166,49 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01038062283737024</v>
+        <v>0.01318101933216169</v>
       </c>
       <c r="C32">
+        <v>30</v>
+      </c>
+      <c r="D32">
+        <v>63</v>
+      </c>
+      <c r="E32">
+        <v>0.52</v>
+      </c>
+      <c r="F32">
+        <v>0.48</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2246</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K32">
+        <v>0.6142857142857143</v>
+      </c>
+      <c r="L32">
+        <v>43</v>
+      </c>
+      <c r="M32">
+        <v>43</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>27</v>
-      </c>
-      <c r="D32">
-        <v>99</v>
-      </c>
-      <c r="E32">
-        <v>0.73</v>
-      </c>
-      <c r="F32">
-        <v>0.27</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>2574</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K32">
-        <v>0.6881720430107527</v>
-      </c>
-      <c r="L32">
-        <v>64</v>
-      </c>
-      <c r="M32">
-        <v>65</v>
-      </c>
-      <c r="N32">
-        <v>0.98</v>
-      </c>
-      <c r="O32">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q32">
-        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2204,37 +2216,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01037006913379422</v>
+        <v>0.01221566975568661</v>
       </c>
       <c r="C33">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E33">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="F33">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>4867</v>
+        <v>2345</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K33">
-        <v>0.6853932584269663</v>
+        <v>0.5616438356164384</v>
       </c>
       <c r="L33">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2246,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2254,37 +2266,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.009994121105232217</v>
+        <v>0.01204081632653061</v>
       </c>
       <c r="C34">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D34">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="E34">
-        <v>0.55</v>
+        <v>0.62</v>
       </c>
       <c r="F34">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>5052</v>
+        <v>4841</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K34">
-        <v>0.6714285714285714</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="L34">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M34">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2296,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2304,13 +2316,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.008878504672897197</v>
+        <v>0.0119937082186394</v>
       </c>
       <c r="C35">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D35">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="E35">
         <v>0.5600000000000001</v>
@@ -2322,97 +2334,145 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>4242</v>
+        <v>5025</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K35">
-        <v>0.6585365853658537</v>
+        <v>0.5</v>
       </c>
       <c r="L35">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M35">
+        <v>32</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.01159644375724778</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>116</v>
+      </c>
+      <c r="E36">
+        <v>0.74</v>
+      </c>
+      <c r="F36">
+        <v>0.26</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2557</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36">
+        <v>0.4871794871794872</v>
+      </c>
+      <c r="L36">
+        <v>38</v>
+      </c>
+      <c r="M36">
+        <v>38</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.009009009009009009</v>
+      </c>
+      <c r="C37">
         <v>28</v>
       </c>
-      <c r="N35">
-        <v>0.96</v>
-      </c>
-      <c r="O35">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L36">
-        <v>39</v>
-      </c>
-      <c r="M36">
-        <v>40</v>
-      </c>
-      <c r="N36">
-        <v>0.97</v>
-      </c>
-      <c r="O36">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
+      <c r="D37">
+        <v>121</v>
+      </c>
+      <c r="E37">
+        <v>0.77</v>
+      </c>
+      <c r="F37">
+        <v>0.23</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>3080</v>
+      </c>
       <c r="J37" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K37">
-        <v>0.4745762711864407</v>
+        <v>0.2803738317757009</v>
       </c>
       <c r="L37">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K38">
-        <v>0.4736842105263158</v>
+        <v>0.2016129032258064</v>
       </c>
       <c r="L38">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2424,73 +2484,73 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K39">
-        <v>0.46875</v>
+        <v>0.1045751633986928</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>34</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K40">
-        <v>0.4487179487179487</v>
+        <v>0.07949790794979079</v>
       </c>
       <c r="L40">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K41">
-        <v>0.2016129032258064</v>
+        <v>0.07736389684813753</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2502,319 +2562,475 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>99</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K42">
-        <v>0.08116883116883117</v>
+        <v>0.07366482504604052</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>283</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K43">
-        <v>0.06270903010033445</v>
+        <v>0.06763285024154589</v>
       </c>
       <c r="L43">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="M43">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="N43">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O43">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>1121</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K44">
-        <v>0.05128205128205128</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L44">
         <v>28</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N44">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="O44">
-        <v>0.03000000000000003</v>
+        <v>0.18</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>518</v>
+        <v>616</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K45">
-        <v>0.03075709779179811</v>
+        <v>0.0336734693877551</v>
       </c>
       <c r="L45">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M45">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N45">
-        <v>0.65</v>
+        <v>0.79</v>
       </c>
       <c r="O45">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>1229</v>
+        <v>947</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K46">
-        <v>0.0272108843537415</v>
+        <v>0.03253878168747635</v>
       </c>
       <c r="L46">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="M46">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="N46">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="O46">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>2574</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="K47">
-        <v>0.02514668901927913</v>
+        <v>0.02938741721854305</v>
       </c>
       <c r="L47">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="M47">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="N47">
-        <v>0.88</v>
+        <v>0.71</v>
       </c>
       <c r="O47">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>2326</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K48">
-        <v>0.02084649399873658</v>
+        <v>0.02938706968933669</v>
       </c>
       <c r="L48">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="M48">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="N48">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="O48">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>1550</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K49">
-        <v>0.01983471074380165</v>
+        <v>0.02930980144973212</v>
       </c>
       <c r="L49">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="M49">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="N49">
-        <v>0.66</v>
+        <v>0.77</v>
       </c>
       <c r="O49">
-        <v>0.34</v>
+        <v>0.23</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2372</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K50">
-        <v>0.01919446192573946</v>
+        <v>0.02598652550529355</v>
       </c>
       <c r="L50">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="M50">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="N50">
-        <v>0.73</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0.27</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>3117</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="K51">
-        <v>0.01577350859453994</v>
+        <v>0.02279924002533249</v>
       </c>
       <c r="L51">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="M51">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="N51">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="O51">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>4867</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="K52">
-        <v>0.01212358232303481</v>
+        <v>0.02269170579029734</v>
       </c>
       <c r="L52">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M52">
-        <v>113</v>
+        <v>40</v>
       </c>
       <c r="N52">
-        <v>0.55</v>
+        <v>0.72</v>
       </c>
       <c r="O52">
-        <v>0.45</v>
+        <v>0.28</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>5052</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K53">
+        <v>0.01989700374531835</v>
+      </c>
+      <c r="L53">
+        <v>85</v>
+      </c>
+      <c r="M53">
+        <v>141</v>
+      </c>
+      <c r="N53">
+        <v>0.6</v>
+      </c>
+      <c r="O53">
+        <v>0.4</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4187</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K54">
+        <v>0.0194450070893255</v>
+      </c>
+      <c r="L54">
+        <v>96</v>
+      </c>
+      <c r="M54">
+        <v>155</v>
+      </c>
+      <c r="N54">
+        <v>0.62</v>
+      </c>
+      <c r="O54">
+        <v>0.38</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K53">
-        <v>0.01118881118881119</v>
-      </c>
-      <c r="L53">
-        <v>48</v>
-      </c>
-      <c r="M53">
-        <v>86</v>
-      </c>
-      <c r="N53">
+      <c r="K55">
+        <v>0.01547805642633229</v>
+      </c>
+      <c r="L55">
+        <v>79</v>
+      </c>
+      <c r="M55">
+        <v>140</v>
+      </c>
+      <c r="N55">
         <v>0.5600000000000001</v>
       </c>
-      <c r="O53">
+      <c r="O55">
         <v>0.4399999999999999</v>
       </c>
-      <c r="P53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q53">
-        <v>4242</v>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K56">
+        <v>0.01449953227315248</v>
+      </c>
+      <c r="L56">
+        <v>31</v>
+      </c>
+      <c r="M56">
+        <v>51</v>
+      </c>
+      <c r="N56">
+        <v>0.61</v>
+      </c>
+      <c r="O56">
+        <v>0.39</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57">
+        <v>0.0144800351031154</v>
+      </c>
+      <c r="L57">
+        <v>33</v>
+      </c>
+      <c r="M57">
+        <v>63</v>
+      </c>
+      <c r="N57">
+        <v>0.52</v>
+      </c>
+      <c r="O57">
+        <v>0.48</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K58">
+        <v>0.01197891710589363</v>
+      </c>
+      <c r="L58">
+        <v>25</v>
+      </c>
+      <c r="M58">
+        <v>81</v>
+      </c>
+      <c r="N58">
+        <v>0.31</v>
+      </c>
+      <c r="O58">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K59">
+        <v>0.008710217755443886</v>
+      </c>
+      <c r="L59">
+        <v>26</v>
+      </c>
+      <c r="M59">
+        <v>148</v>
+      </c>
+      <c r="N59">
+        <v>0.18</v>
+      </c>
+      <c r="O59">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>2959</v>
       </c>
     </row>
   </sheetData>
